--- a/verified_fintech_jobs.xlsx
+++ b/verified_fintech_jobs.xlsx
@@ -551,7 +551,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-29T22:50:33.418970</t>
+          <t>2026-01-29T23:07:14.816835</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2026-01-29T22:50:33.418970</t>
+          <t>2026-01-29T23:07:14.816835</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2026-01-29T22:50:33.418970</t>
+          <t>2026-01-29T23:07:14.816835</t>
         </is>
       </c>
     </row>
